--- a/source/Cash_Severna.xlsx
+++ b/source/Cash_Severna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\filesrv\uf\kassir\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8795D81B-ABAC-45A6-9277-21DE43ED4FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F31289-6B25-4CA0-B6A2-6083E87EC02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -954,7 +954,7 @@
       <selection activeCell="BO16" sqref="BO16"/>
       <selection pane="topRight" activeCell="BO16" sqref="BO16"/>
       <selection pane="bottomLeft" activeCell="BO16" sqref="BO16"/>
-      <selection pane="bottomRight" activeCell="N39" sqref="N39"/>
+      <selection pane="bottomRight" activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1164,8 +1164,12 @@
       <c r="N4" s="70">
         <v>454250018</v>
       </c>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
+      <c r="O4" s="70">
+        <v>476239363</v>
+      </c>
+      <c r="P4" s="70">
+        <v>377198108</v>
+      </c>
       <c r="Q4" s="70"/>
       <c r="R4" s="70"/>
       <c r="S4" s="70"/>
@@ -1220,8 +1224,12 @@
       <c r="N5" s="70">
         <v>192729</v>
       </c>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
+      <c r="O5" s="70">
+        <v>192729</v>
+      </c>
+      <c r="P5" s="70">
+        <v>192729</v>
+      </c>
       <c r="Q5" s="70"/>
       <c r="R5" s="70"/>
       <c r="S5" s="70"/>
@@ -1276,8 +1284,12 @@
       <c r="N6" s="70">
         <v>87328027</v>
       </c>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
+      <c r="O6" s="70">
+        <v>134272848</v>
+      </c>
+      <c r="P6" s="70">
+        <v>130226460</v>
+      </c>
       <c r="Q6" s="70"/>
       <c r="R6" s="70"/>
       <c r="S6" s="70"/>
@@ -1332,8 +1344,12 @@
       <c r="N7" s="70">
         <v>6116154</v>
       </c>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
+      <c r="O7" s="70">
+        <v>5400661</v>
+      </c>
+      <c r="P7" s="70">
+        <v>5400091</v>
+      </c>
       <c r="Q7" s="70"/>
       <c r="R7" s="70"/>
       <c r="S7" s="70"/>
@@ -1388,8 +1404,12 @@
       <c r="N8" s="70">
         <v>691903</v>
       </c>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
+      <c r="O8" s="70">
+        <v>354691</v>
+      </c>
+      <c r="P8" s="70">
+        <v>1799479</v>
+      </c>
       <c r="Q8" s="70"/>
       <c r="R8" s="70"/>
       <c r="S8" s="70"/>
@@ -1444,8 +1464,12 @@
       <c r="N9" s="70">
         <v>12113755</v>
       </c>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
+      <c r="O9" s="70">
+        <v>12112955</v>
+      </c>
+      <c r="P9" s="70">
+        <v>12109637</v>
+      </c>
       <c r="Q9" s="70"/>
       <c r="R9" s="70"/>
       <c r="S9" s="70"/>
@@ -1500,8 +1524,12 @@
       <c r="N10" s="70">
         <v>7610040</v>
       </c>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
+      <c r="O10" s="70">
+        <v>7610040</v>
+      </c>
+      <c r="P10" s="70">
+        <v>7610040</v>
+      </c>
       <c r="Q10" s="70"/>
       <c r="R10" s="70"/>
       <c r="S10" s="70"/>
@@ -1554,8 +1582,12 @@
       <c r="N11" s="70">
         <v>118575</v>
       </c>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
+      <c r="O11" s="70">
+        <v>118575</v>
+      </c>
+      <c r="P11" s="70">
+        <v>115075</v>
+      </c>
       <c r="Q11" s="70"/>
       <c r="R11" s="70"/>
       <c r="S11" s="70"/>
@@ -1944,8 +1976,12 @@
       <c r="N24" s="70">
         <v>1244543</v>
       </c>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
+      <c r="O24" s="70">
+        <v>1244543</v>
+      </c>
+      <c r="P24" s="70">
+        <v>1244543</v>
+      </c>
       <c r="Q24" s="70"/>
       <c r="R24" s="70"/>
       <c r="S24" s="70"/>
@@ -2080,8 +2116,12 @@
       <c r="N27" s="70">
         <v>1688703</v>
       </c>
-      <c r="O27" s="70"/>
-      <c r="P27" s="70"/>
+      <c r="O27" s="70">
+        <v>1688703</v>
+      </c>
+      <c r="P27" s="70">
+        <v>1688703</v>
+      </c>
       <c r="Q27" s="70"/>
       <c r="R27" s="70"/>
       <c r="S27" s="70"/>
@@ -2226,8 +2266,12 @@
       <c r="N32" s="70">
         <v>45152761</v>
       </c>
-      <c r="O32" s="70"/>
-      <c r="P32" s="70"/>
+      <c r="O32" s="70">
+        <v>45152761</v>
+      </c>
+      <c r="P32" s="70">
+        <v>45112051</v>
+      </c>
       <c r="Q32" s="70"/>
       <c r="R32" s="70"/>
       <c r="S32" s="70"/>
@@ -2318,8 +2362,12 @@
       <c r="N34" s="70">
         <v>5240700</v>
       </c>
-      <c r="O34" s="70"/>
-      <c r="P34" s="70"/>
+      <c r="O34" s="70">
+        <v>5240700</v>
+      </c>
+      <c r="P34" s="70">
+        <v>5240700</v>
+      </c>
       <c r="Q34" s="70"/>
       <c r="R34" s="70"/>
       <c r="S34" s="70"/>
@@ -2410,8 +2458,12 @@
       <c r="N36" s="70">
         <v>1424705</v>
       </c>
-      <c r="O36" s="70"/>
-      <c r="P36" s="70"/>
+      <c r="O36" s="70">
+        <v>1424705</v>
+      </c>
+      <c r="P36" s="70">
+        <v>1424705</v>
+      </c>
       <c r="Q36" s="70"/>
       <c r="R36" s="70"/>
       <c r="S36" s="70"/>
@@ -2502,8 +2554,12 @@
       <c r="N38" s="70">
         <v>320000</v>
       </c>
-      <c r="O38" s="70"/>
-      <c r="P38" s="70"/>
+      <c r="O38" s="70">
+        <v>320000</v>
+      </c>
+      <c r="P38" s="70">
+        <v>320000</v>
+      </c>
       <c r="Q38" s="70"/>
       <c r="R38" s="70"/>
       <c r="S38" s="70"/>

--- a/source/Cash_Severna.xlsx
+++ b/source/Cash_Severna.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\filesrv\uf\kassir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artur\Documents\cf\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F31289-6B25-4CA0-B6A2-6083E87EC02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B280F714-8A73-414C-8A88-511D137671F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="13152" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Текущие счета" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="__FPMExcelClient_CellBasedFunctionStatus" localSheetId="1" hidden="1">"2_2_2_2_2"</definedName>
     <definedName name="__FPMExcelClient_CellBasedFunctionStatus" localSheetId="0" hidden="1">"2_2_2_2_2"</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Депозиты!$A$2:$G$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Депозиты!$A$2:$G$24</definedName>
     <definedName name="Print_Range" localSheetId="1">#REF!</definedName>
     <definedName name="Print_Range">#REF!</definedName>
   </definedNames>
@@ -565,10 +565,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Процентный 9" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
     <cellStyle name="Финансовый 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="10">
@@ -954,48 +954,48 @@
       <selection activeCell="BO16" sqref="BO16"/>
       <selection pane="topRight" activeCell="BO16" sqref="BO16"/>
       <selection pane="bottomLeft" activeCell="BO16" sqref="BO16"/>
-      <selection pane="bottomRight" activeCell="P39" sqref="P39"/>
+      <selection pane="bottomRight" activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="51" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" style="51" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="19" style="30" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" customWidth="1"/>
+    <col min="19" max="19" width="15.109375" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" customWidth="1"/>
     <col min="21" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" customWidth="1"/>
-    <col min="23" max="23" width="17.5703125" customWidth="1"/>
-    <col min="24" max="24" width="17.85546875" customWidth="1"/>
-    <col min="25" max="25" width="17.42578125" customWidth="1"/>
-    <col min="26" max="26" width="17.140625" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" customWidth="1"/>
+    <col min="23" max="23" width="17.5546875" customWidth="1"/>
+    <col min="24" max="24" width="17.88671875" customWidth="1"/>
+    <col min="25" max="25" width="17.44140625" customWidth="1"/>
+    <col min="26" max="26" width="17.109375" customWidth="1"/>
     <col min="27" max="27" width="16" customWidth="1"/>
-    <col min="28" max="28" width="16.5703125" customWidth="1"/>
+    <col min="28" max="28" width="16.5546875" customWidth="1"/>
     <col min="29" max="29" width="16" customWidth="1"/>
-    <col min="30" max="30" width="17.7109375" customWidth="1"/>
-    <col min="31" max="31" width="16.28515625" customWidth="1"/>
+    <col min="30" max="30" width="17.6640625" customWidth="1"/>
+    <col min="31" max="31" width="16.33203125" customWidth="1"/>
     <col min="32" max="32" width="17" customWidth="1"/>
-    <col min="33" max="33" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.28515625" customWidth="1"/>
+    <col min="33" max="33" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
         <v>36</v>
       </c>
@@ -1022,7 +1022,7 @@
       <c r="AC1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
@@ -1122,14 +1122,14 @@
       </c>
       <c r="AI2" s="45"/>
     </row>
-    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="63"/>
     </row>
-    <row r="4" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="94" t="s">
         <v>35</v>
       </c>
@@ -1168,10 +1168,14 @@
         <v>476239363</v>
       </c>
       <c r="P4" s="70">
-        <v>377198108</v>
-      </c>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
+        <v>27198108</v>
+      </c>
+      <c r="Q4" s="70">
+        <v>51551422</v>
+      </c>
+      <c r="R4" s="70">
+        <v>382570850</v>
+      </c>
       <c r="S4" s="70"/>
       <c r="T4" s="82"/>
       <c r="U4" s="70"/>
@@ -1191,7 +1195,7 @@
         <v>210651204</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="94"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -1230,8 +1234,12 @@
       <c r="P5" s="70">
         <v>192729</v>
       </c>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
+      <c r="Q5" s="70">
+        <v>192729</v>
+      </c>
+      <c r="R5" s="70">
+        <v>192729</v>
+      </c>
       <c r="S5" s="70"/>
       <c r="T5" s="70"/>
       <c r="U5" s="70"/>
@@ -1251,7 +1259,7 @@
         <v>932878</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="94"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -1290,8 +1298,12 @@
       <c r="P6" s="70">
         <v>130226460</v>
       </c>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
+      <c r="Q6" s="70">
+        <v>57143578</v>
+      </c>
+      <c r="R6" s="70">
+        <v>131034378</v>
+      </c>
       <c r="S6" s="70"/>
       <c r="T6" s="70"/>
       <c r="U6" s="70"/>
@@ -1311,7 +1323,7 @@
         <v>1134250000</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="94"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -1350,8 +1362,12 @@
       <c r="P7" s="70">
         <v>5400091</v>
       </c>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
+      <c r="Q7" s="70">
+        <v>6514194</v>
+      </c>
+      <c r="R7" s="70">
+        <v>5986769</v>
+      </c>
       <c r="S7" s="70"/>
       <c r="T7" s="70"/>
       <c r="U7" s="70"/>
@@ -1371,7 +1387,7 @@
         <v>5845109</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="94"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -1410,8 +1426,12 @@
       <c r="P8" s="70">
         <v>1799479</v>
       </c>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
+      <c r="Q8" s="70">
+        <v>3484006</v>
+      </c>
+      <c r="R8" s="70">
+        <v>627388</v>
+      </c>
       <c r="S8" s="70"/>
       <c r="T8" s="70"/>
       <c r="U8" s="70"/>
@@ -1431,7 +1451,7 @@
         <v>4741664</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="81"/>
       <c r="B9" s="3" t="s">
         <v>39</v>
@@ -1470,8 +1490,12 @@
       <c r="P9" s="70">
         <v>12109637</v>
       </c>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
+      <c r="Q9" s="70">
+        <v>12108637</v>
+      </c>
+      <c r="R9" s="70">
+        <v>12108637</v>
+      </c>
       <c r="S9" s="70"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
@@ -1491,7 +1515,7 @@
         <v>12113755</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="81"/>
       <c r="B10" s="3" t="s">
         <v>40</v>
@@ -1530,8 +1554,12 @@
       <c r="P10" s="70">
         <v>7610040</v>
       </c>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
+      <c r="Q10" s="70">
+        <v>7610040</v>
+      </c>
+      <c r="R10" s="70">
+        <v>7607340</v>
+      </c>
       <c r="S10" s="70"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
@@ -1551,7 +1579,7 @@
         <v>7617056</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="81"/>
       <c r="B11" s="3" t="s">
         <v>41</v>
@@ -1588,8 +1616,12 @@
       <c r="P11" s="70">
         <v>115075</v>
       </c>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
+      <c r="Q11" s="70">
+        <v>115075</v>
+      </c>
+      <c r="R11" s="70">
+        <v>115075</v>
+      </c>
       <c r="S11" s="70"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
@@ -1609,7 +1641,7 @@
         <v>118575</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="81"/>
       <c r="B12" s="3"/>
       <c r="C12" s="47"/>
@@ -1645,16 +1677,16 @@
       <c r="AG12" s="70"/>
       <c r="AH12" s="70"/>
     </row>
-    <row r="13" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52"/>
       <c r="C13" s="47"/>
     </row>
-    <row r="14" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="71"/>
       <c r="B14" s="4"/>
       <c r="C14" s="64"/>
     </row>
-    <row r="15" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="94" t="s">
         <v>21</v>
       </c>
@@ -1696,7 +1728,7 @@
       <c r="AG15" s="70"/>
       <c r="AH15" s="70"/>
     </row>
-    <row r="16" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="94"/>
       <c r="B16" s="3" t="s">
         <v>2</v>
@@ -1736,7 +1768,7 @@
       <c r="AG16" s="70"/>
       <c r="AH16" s="70"/>
     </row>
-    <row r="17" spans="1:34" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="94"/>
       <c r="B17" s="3" t="s">
         <v>7</v>
@@ -1776,7 +1808,7 @@
       <c r="AG17" s="70"/>
       <c r="AH17" s="70"/>
     </row>
-    <row r="18" spans="1:34" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="94"/>
       <c r="B18" s="3" t="s">
         <v>39</v>
@@ -1816,7 +1848,7 @@
       <c r="AG18" s="70"/>
       <c r="AH18" s="70"/>
     </row>
-    <row r="19" spans="1:34" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="94"/>
       <c r="B19" s="3" t="s">
         <v>40</v>
@@ -1856,7 +1888,7 @@
       <c r="AG19" s="70"/>
       <c r="AH19" s="70"/>
     </row>
-    <row r="20" spans="1:34" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="81"/>
       <c r="B20" s="3" t="s">
         <v>6</v>
@@ -1894,7 +1926,7 @@
       <c r="AG20" s="70"/>
       <c r="AH20" s="70"/>
     </row>
-    <row r="21" spans="1:34" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="81"/>
       <c r="B21" s="3" t="s">
         <v>44</v>
@@ -1932,16 +1964,16 @@
       <c r="AG21" s="70"/>
       <c r="AH21" s="70"/>
     </row>
-    <row r="22" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="52"/>
       <c r="C22" s="47"/>
     </row>
-    <row r="23" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="71"/>
       <c r="B23" s="3"/>
       <c r="C23" s="64"/>
     </row>
-    <row r="24" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="94" t="s">
         <v>32</v>
       </c>
@@ -1982,8 +2014,12 @@
       <c r="P24" s="70">
         <v>1244543</v>
       </c>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
+      <c r="Q24" s="70">
+        <v>1244543</v>
+      </c>
+      <c r="R24" s="70">
+        <v>1244543</v>
+      </c>
       <c r="S24" s="70"/>
       <c r="T24" s="70"/>
       <c r="U24" s="70"/>
@@ -2003,7 +2039,7 @@
         <v>1244543</v>
       </c>
     </row>
-    <row r="25" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="94"/>
       <c r="B25" s="3" t="s">
         <v>7</v>
@@ -2043,7 +2079,7 @@
       <c r="AG25" s="70"/>
       <c r="AH25" s="70"/>
     </row>
-    <row r="26" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="94"/>
       <c r="B26" s="3" t="s">
         <v>2</v>
@@ -2083,7 +2119,7 @@
       <c r="AG26" s="70"/>
       <c r="AH26" s="70"/>
     </row>
-    <row r="27" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="94"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -2122,8 +2158,12 @@
       <c r="P27" s="70">
         <v>1688703</v>
       </c>
-      <c r="Q27" s="70"/>
-      <c r="R27" s="70"/>
+      <c r="Q27" s="70">
+        <v>1688703</v>
+      </c>
+      <c r="R27" s="70">
+        <v>1688703</v>
+      </c>
       <c r="S27" s="70"/>
       <c r="T27" s="70"/>
       <c r="U27" s="70"/>
@@ -2143,7 +2183,7 @@
         <v>1688703</v>
       </c>
     </row>
-    <row r="28" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="94"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -2183,7 +2223,7 @@
       <c r="AG28" s="70"/>
       <c r="AH28" s="70"/>
     </row>
-    <row r="29" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="94"/>
       <c r="B29" s="3" t="s">
         <v>44</v>
@@ -2221,19 +2261,19 @@
       <c r="AG29" s="70"/>
       <c r="AH29" s="70"/>
     </row>
-    <row r="30" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="101"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="98" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="64"/>
     </row>
-    <row r="32" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="94"/>
       <c r="B32" s="3" t="s">
         <v>39</v>
@@ -2272,8 +2312,12 @@
       <c r="P32" s="70">
         <v>45112051</v>
       </c>
-      <c r="Q32" s="70"/>
-      <c r="R32" s="70"/>
+      <c r="Q32" s="70">
+        <v>45112051</v>
+      </c>
+      <c r="R32" s="70">
+        <v>45112051</v>
+      </c>
       <c r="S32" s="70"/>
       <c r="T32" s="70"/>
       <c r="U32" s="70"/>
@@ -2293,7 +2337,7 @@
         <v>45152761</v>
       </c>
     </row>
-    <row r="33" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="94"/>
       <c r="B33" s="3"/>
       <c r="C33" s="47"/>
@@ -2329,7 +2373,7 @@
       <c r="AG33" s="70"/>
       <c r="AH33" s="70"/>
     </row>
-    <row r="34" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="94"/>
       <c r="B34" s="3" t="s">
         <v>6</v>
@@ -2368,8 +2412,12 @@
       <c r="P34" s="70">
         <v>5240700</v>
       </c>
-      <c r="Q34" s="70"/>
-      <c r="R34" s="70"/>
+      <c r="Q34" s="70">
+        <v>5240700</v>
+      </c>
+      <c r="R34" s="70">
+        <v>5240700</v>
+      </c>
       <c r="S34" s="70"/>
       <c r="T34" s="70"/>
       <c r="U34" s="70"/>
@@ -2389,7 +2437,7 @@
         <v>5240700</v>
       </c>
     </row>
-    <row r="35" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="94"/>
       <c r="B35" s="3"/>
       <c r="C35" s="47"/>
@@ -2425,7 +2473,7 @@
       <c r="AG35" s="70"/>
       <c r="AH35" s="70"/>
     </row>
-    <row r="36" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="94"/>
       <c r="B36" s="3" t="s">
         <v>4</v>
@@ -2464,8 +2512,12 @@
       <c r="P36" s="70">
         <v>1424705</v>
       </c>
-      <c r="Q36" s="70"/>
-      <c r="R36" s="70"/>
+      <c r="Q36" s="70">
+        <v>1424705</v>
+      </c>
+      <c r="R36" s="70">
+        <v>1424705</v>
+      </c>
       <c r="S36" s="70"/>
       <c r="T36" s="70"/>
       <c r="U36" s="70"/>
@@ -2485,7 +2537,7 @@
         <v>1985332</v>
       </c>
     </row>
-    <row r="37" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="94"/>
       <c r="B37" s="3"/>
       <c r="C37" s="47"/>
@@ -2521,7 +2573,7 @@
       <c r="AG37" s="70"/>
       <c r="AH37" s="70"/>
     </row>
-    <row r="38" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="94"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
@@ -2560,8 +2612,12 @@
       <c r="P38" s="70">
         <v>320000</v>
       </c>
-      <c r="Q38" s="70"/>
-      <c r="R38" s="70"/>
+      <c r="Q38" s="70">
+        <v>320000</v>
+      </c>
+      <c r="R38" s="70">
+        <v>320000</v>
+      </c>
       <c r="S38" s="70"/>
       <c r="T38" s="70"/>
       <c r="U38" s="70"/>
@@ -2581,7 +2637,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="39" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="94"/>
       <c r="B39" s="3"/>
       <c r="C39" s="47"/>
@@ -2617,7 +2673,7 @@
       <c r="AG39" s="70"/>
       <c r="AH39" s="70"/>
     </row>
-    <row r="40" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="94"/>
       <c r="B40" s="3"/>
       <c r="C40" s="47"/>
@@ -2653,7 +2709,7 @@
       <c r="AG40" s="70"/>
       <c r="AH40" s="70"/>
     </row>
-    <row r="41" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="101"/>
       <c r="B41" s="17"/>
       <c r="C41" s="66"/>
@@ -2686,28 +2742,28 @@
       <c r="AD41" s="17"/>
       <c r="AE41" s="17"/>
     </row>
-    <row r="42" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="95"/>
       <c r="B42" s="95"/>
       <c r="C42" s="54"/>
     </row>
-    <row r="43" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="54"/>
       <c r="C43" s="47"/>
     </row>
-    <row r="44" spans="1:34" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:34" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="49"/>
       <c r="B44" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="68"/>
     </row>
-    <row r="45" spans="1:34" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:34" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50"/>
       <c r="B45" s="8"/>
       <c r="C45" s="46"/>
     </row>
-    <row r="46" spans="1:34" s="1" customFormat="1" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:34" s="1" customFormat="1" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="97" t="s">
         <v>3</v>
       </c>
@@ -2716,47 +2772,47 @@
       </c>
       <c r="C46" s="47"/>
     </row>
-    <row r="47" spans="1:34" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:34" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="97"/>
       <c r="B47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="47"/>
     </row>
-    <row r="48" spans="1:34" s="1" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:34" s="1" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="97"/>
       <c r="B48" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="47"/>
     </row>
-    <row r="49" spans="1:31" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="98" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="64"/>
     </row>
-    <row r="50" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="94"/>
       <c r="B50" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="47"/>
     </row>
-    <row r="51" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="94"/>
       <c r="B51" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="47"/>
     </row>
-    <row r="52" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="94"/>
       <c r="B52" s="3"/>
       <c r="C52" s="47"/>
     </row>
-    <row r="53" spans="1:31" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="53" t="s">
         <v>9</v>
       </c>
@@ -2782,7 +2838,7 @@
       <c r="AC53" s="7"/>
       <c r="AE53" s="7"/>
     </row>
-    <row r="54" spans="1:31" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="99" t="s">
         <v>11</v>
       </c>
@@ -2791,47 +2847,47 @@
       </c>
       <c r="C54" s="47"/>
     </row>
-    <row r="55" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="97"/>
       <c r="B55" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="47"/>
     </row>
-    <row r="56" spans="1:31" s="17" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" s="17" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="100"/>
       <c r="B56" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="66"/>
     </row>
-    <row r="57" spans="1:31" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="98" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="64"/>
     </row>
-    <row r="58" spans="1:31" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="94"/>
       <c r="B58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C58" s="47"/>
     </row>
-    <row r="59" spans="1:31" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="94"/>
       <c r="B59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="47"/>
     </row>
-    <row r="60" spans="1:31" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="101"/>
       <c r="B60" s="10"/>
       <c r="C60" s="66"/>
     </row>
-    <row r="61" spans="1:31" s="7" customFormat="1" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" s="7" customFormat="1" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="53" t="s">
         <v>9</v>
       </c>
@@ -2858,12 +2914,12 @@
       <c r="AC61" s="13"/>
       <c r="AE61" s="13"/>
     </row>
-    <row r="62" spans="1:31" s="1" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:31" s="1" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="54"/>
       <c r="B62" s="3"/>
       <c r="C62" s="47"/>
     </row>
-    <row r="63" spans="1:31" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:31" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="95" t="s">
         <v>12</v>
       </c>
@@ -2874,12 +2930,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="48"/>
       <c r="B64" s="19"/>
       <c r="C64" s="48"/>
     </row>
-    <row r="65" spans="1:31" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="96" t="s">
         <v>15</v>
       </c>
@@ -2906,7 +2962,7 @@
       <c r="AC65" s="21"/>
       <c r="AE65" s="21"/>
     </row>
-    <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
       <c r="H66" s="23"/>
@@ -2923,7 +2979,7 @@
       <c r="AC66" s="21"/>
       <c r="AE66" s="21"/>
     </row>
-    <row r="67" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="24" t="s">
         <v>16</v>
       </c>
@@ -2956,67 +3012,67 @@
       <c r="AD67" s="25"/>
       <c r="AE67" s="25"/>
     </row>
-    <row r="68" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
     </row>
-    <row r="69" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="24"/>
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
     </row>
-    <row r="70" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="26"/>
       <c r="D70" s="25"/>
       <c r="E70" s="25"/>
     </row>
-    <row r="71" spans="1:31" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:31" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="55"/>
       <c r="B71" s="27"/>
       <c r="C71" s="29"/>
       <c r="D71" s="25"/>
       <c r="E71" s="25"/>
     </row>
-    <row r="72" spans="1:31" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="55"/>
       <c r="B72" s="27"/>
       <c r="C72" s="29"/>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
     </row>
-    <row r="73" spans="1:31" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="55"/>
       <c r="C73" s="29"/>
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
     </row>
-    <row r="74" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="55"/>
       <c r="C74" s="29"/>
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
     </row>
-    <row r="75" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="55"/>
       <c r="C75" s="29"/>
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
     </row>
-    <row r="76" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="55"/>
       <c r="C76" s="29"/>
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D78" s="30"/>
       <c r="E78" s="30"/>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D79" s="30"/>
       <c r="E79" s="30"/>
     </row>
@@ -3076,31 +3132,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="31" customWidth="1"/>
-    <col min="3" max="4" width="20.42578125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="58" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="58" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="31" customWidth="1"/>
+    <col min="3" max="4" width="20.44140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="58" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="58" customWidth="1"/>
     <col min="7" max="7" width="10" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="31"/>
+    <col min="8" max="16384" width="9.109375" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="102" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="102"/>
       <c r="C1" s="44"/>
     </row>
-    <row r="2" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>18</v>
       </c>
@@ -3123,7 +3179,7 @@
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
@@ -3134,7 +3190,7 @@
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
       <c r="D4" s="36"/>
@@ -3142,7 +3198,7 @@
       <c r="F4" s="59"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
       <c r="D5" s="36"/>
@@ -3150,7 +3206,7 @@
       <c r="F5" s="59"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
       <c r="D6" s="36"/>
@@ -3158,7 +3214,7 @@
       <c r="F6" s="59"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="36"/>
@@ -3166,7 +3222,7 @@
       <c r="F7" s="59"/>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>1</v>
       </c>
@@ -3188,7 +3244,7 @@
       </c>
       <c r="H8" s="86"/>
     </row>
-    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="92" t="s">
         <v>27</v>
       </c>
@@ -3207,7 +3263,7 @@
       </c>
       <c r="H9" s="86"/>
     </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="92" t="s">
         <v>27</v>
       </c>
@@ -3226,7 +3282,7 @@
       </c>
       <c r="H10" s="86"/>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="92" t="s">
         <v>27</v>
       </c>
@@ -3245,7 +3301,7 @@
       </c>
       <c r="H11" s="86"/>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="92" t="s">
         <v>27</v>
       </c>
@@ -3264,7 +3320,7 @@
       </c>
       <c r="H12" s="86"/>
     </row>
-    <row r="13" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="92"/>
       <c r="C13" s="73"/>
       <c r="D13" s="85"/>
@@ -3273,64 +3329,64 @@
       <c r="G13" s="84"/>
       <c r="H13" s="86"/>
     </row>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="92" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="73"/>
-      <c r="D14" s="85">
-        <v>300000000</v>
+      <c r="D14" s="75">
+        <v>250000000</v>
       </c>
       <c r="E14" s="83">
         <v>45849</v>
       </c>
       <c r="F14" s="83">
-        <v>45884</v>
+        <v>45894</v>
       </c>
       <c r="G14" s="84">
         <v>0.192</v>
       </c>
       <c r="H14" s="86"/>
     </row>
-    <row r="15" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="92" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="73"/>
-      <c r="D15" s="75">
-        <v>250000000</v>
+      <c r="D15" s="85">
+        <v>200000000</v>
       </c>
       <c r="E15" s="83">
-        <v>45849</v>
+        <v>45863</v>
       </c>
       <c r="F15" s="83">
-        <v>45894</v>
+        <v>45898</v>
       </c>
       <c r="G15" s="84">
-        <v>0.192</v>
+        <v>0.1716</v>
       </c>
       <c r="H15" s="86"/>
     </row>
-    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="92" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="73"/>
       <c r="D16" s="85">
-        <v>200000000</v>
+        <v>350000000</v>
       </c>
       <c r="E16" s="83">
-        <v>45863</v>
+        <v>45882</v>
       </c>
       <c r="F16" s="83">
-        <v>45898</v>
+        <v>45922</v>
       </c>
       <c r="G16" s="84">
-        <v>0.1716</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="H16" s="86"/>
     </row>
-    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="92" t="s">
         <v>27</v>
       </c>
@@ -3341,35 +3397,35 @@
       <c r="G17" s="84"/>
       <c r="H17" s="86"/>
     </row>
-    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="92"/>
+    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="93" t="s">
+        <v>45</v>
+      </c>
       <c r="C18" s="73"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="84"/>
+      <c r="D18" s="85">
+        <v>1000000000</v>
+      </c>
+      <c r="E18" s="83">
+        <v>45870</v>
+      </c>
+      <c r="F18" s="83">
+        <v>45912</v>
+      </c>
+      <c r="G18" s="84">
+        <v>0.17780000000000001</v>
+      </c>
       <c r="H18" s="86"/>
     </row>
-    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="93" t="s">
-        <v>45</v>
-      </c>
+    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="92"/>
       <c r="C19" s="73"/>
-      <c r="D19" s="85">
-        <v>1000000000</v>
-      </c>
-      <c r="E19" s="83">
-        <v>45870</v>
-      </c>
-      <c r="F19" s="83">
-        <v>45912</v>
-      </c>
-      <c r="G19" s="84">
-        <v>0.17780000000000001</v>
-      </c>
+      <c r="D19" s="85"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="84"/>
       <c r="H19" s="86"/>
     </row>
-    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="92"/>
       <c r="C20" s="73"/>
       <c r="D20" s="85"/>
@@ -3378,79 +3434,79 @@
       <c r="G20" s="84"/>
       <c r="H20" s="86"/>
     </row>
-    <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="92"/>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="73"/>
       <c r="C21" s="73"/>
-      <c r="D21" s="85"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="83"/>
       <c r="F21" s="83"/>
       <c r="G21" s="84"/>
       <c r="H21" s="86"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="86"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="37"/>
-    </row>
-    <row r="24" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39" t="s">
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="37"/>
+    </row>
+    <row r="23" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40">
-        <f>SUM(D4:D23)</f>
-        <v>3350000000</v>
-      </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="41"/>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="39"/>
+      <c r="D23" s="40">
+        <f>SUM(D4:D22)</f>
+        <v>3400000000</v>
+      </c>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="41"/>
+    </row>
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="86"/>
       <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="86"/>
+      <c r="D25" s="87">
+        <v>2557845</v>
+      </c>
+      <c r="E25" s="76">
+        <v>45727</v>
+      </c>
+      <c r="F25" s="76">
+        <v>45908</v>
+      </c>
+      <c r="G25" s="88">
+        <v>7.4999999999999997E-3</v>
+      </c>
       <c r="H25" s="86"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="86"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="86" t="s">
+        <v>42</v>
+      </c>
       <c r="C26" s="86"/>
-      <c r="D26" s="87">
-        <v>2557845</v>
-      </c>
-      <c r="E26" s="76">
-        <v>45727</v>
-      </c>
-      <c r="F26" s="76">
-        <v>45908</v>
-      </c>
-      <c r="G26" s="88">
-        <v>7.4999999999999997E-3</v>
-      </c>
+      <c r="D26" s="86"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="86"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="86" t="s">
-        <v>42</v>
-      </c>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="86"/>
       <c r="C27" s="86"/>
       <c r="D27" s="86"/>
       <c r="E27" s="87"/>
@@ -3458,54 +3514,54 @@
       <c r="G27" s="86"/>
       <c r="H27" s="86"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="73"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="86"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="86"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="88"/>
       <c r="H28" s="86"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="73"/>
-      <c r="C29" s="74"/>
+      <c r="I28" s="80"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
       <c r="D29" s="86"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="88"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="86"/>
       <c r="H29" s="86"/>
-      <c r="I29" s="80"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="86"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="89"/>
       <c r="C30" s="86"/>
       <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="86"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="88"/>
       <c r="H30" s="86"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="89"/>
-      <c r="C31" s="86"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="73"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="86"/>
       <c r="E31" s="76"/>
       <c r="F31" s="76"/>
-      <c r="G31" s="88"/>
+      <c r="G31" s="90"/>
       <c r="H31" s="86"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="73"/>
-      <c r="C32" s="74"/>
+      <c r="I31" s="80"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="91"/>
+      <c r="C32" s="86"/>
       <c r="D32" s="86"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="90"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="86"/>
-      <c r="I32" s="80"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="91"/>
       <c r="C33" s="86"/>
       <c r="D33" s="86"/>
@@ -3514,7 +3570,7 @@
       <c r="G33" s="86"/>
       <c r="H33" s="86"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="91"/>
       <c r="C34" s="86"/>
       <c r="D34" s="86"/>
@@ -3523,28 +3579,19 @@
       <c r="G34" s="86"/>
       <c r="H34" s="86"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="91"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="80"/>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="C28">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
+  <conditionalFormatting sqref="C31">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -3562,26 +3609,26 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="58" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="31"/>
+    <col min="1" max="1" width="12.5546875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="31" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="58" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="58" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="102"/>
       <c r="B1" s="102"/>
       <c r="C1" s="44"/>
       <c r="E1" s="58"/>
       <c r="F1" s="58"/>
     </row>
-    <row r="2" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>18</v>
       </c>
@@ -3604,7 +3651,7 @@
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:10" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
       <c r="D3" s="36"/>
@@ -3612,7 +3659,7 @@
       <c r="F3" s="59"/>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
@@ -3623,7 +3670,7 @@
       <c r="F4" s="76"/>
       <c r="G4" s="77"/>
     </row>
-    <row r="5" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>1</v>
       </c>
@@ -3634,7 +3681,7 @@
       <c r="F5" s="76"/>
       <c r="G5" s="77"/>
     </row>
-    <row r="6" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>1</v>
       </c>
@@ -3645,7 +3692,7 @@
       <c r="F6" s="76"/>
       <c r="G6" s="77"/>
     </row>
-    <row r="7" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>1</v>
       </c>
@@ -3656,7 +3703,7 @@
       <c r="F7" s="76"/>
       <c r="G7" s="77"/>
     </row>
-    <row r="8" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>1</v>
       </c>
@@ -3667,7 +3714,7 @@
       <c r="F8" s="76"/>
       <c r="G8" s="77"/>
     </row>
-    <row r="9" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>1</v>
       </c>
@@ -3678,7 +3725,7 @@
       <c r="F9" s="76"/>
       <c r="G9" s="77"/>
     </row>
-    <row r="10" spans="1:10" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
       <c r="D10" s="43"/>
@@ -3686,12 +3733,12 @@
       <c r="F10" s="60"/>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="J12" s="31"/>

--- a/source/Cash_Severna.xlsx
+++ b/source/Cash_Severna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artur\Documents\cf\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B280F714-8A73-414C-8A88-511D137671F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D05B5A1-0961-4EE4-A77C-9D009FE502C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="13152" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="19440" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Текущие счета" sheetId="1" r:id="rId1"/>
@@ -950,11 +950,11 @@
   <dimension ref="A1:AI79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BO16" sqref="BO16"/>
       <selection pane="topRight" activeCell="BO16" sqref="BO16"/>
       <selection pane="bottomLeft" activeCell="BO16" sqref="BO16"/>
-      <selection pane="bottomRight" activeCell="R39" sqref="R39"/>
+      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2101,7 +2101,9 @@
       <c r="O26" s="70"/>
       <c r="P26" s="70"/>
       <c r="Q26" s="70"/>
-      <c r="R26" s="70"/>
+      <c r="R26" s="70">
+        <v>100000</v>
+      </c>
       <c r="S26" s="70"/>
       <c r="T26" s="70"/>
       <c r="U26" s="70"/>

--- a/source/Cash_Severna.xlsx
+++ b/source/Cash_Severna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artur\Documents\cf\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D05B5A1-0961-4EE4-A77C-9D009FE502C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6957E53-17A9-4359-9297-20CD3286DA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="19440" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3468" yWindow="1104" windowWidth="19440" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Текущие счета" sheetId="1" r:id="rId1"/>
@@ -949,12 +949,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="P12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BO16" sqref="BO16"/>
       <selection pane="topRight" activeCell="BO16" sqref="BO16"/>
       <selection pane="bottomLeft" activeCell="BO16" sqref="BO16"/>
-      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
+      <selection pane="bottomRight" activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2101,9 +2101,7 @@
       <c r="O26" s="70"/>
       <c r="P26" s="70"/>
       <c r="Q26" s="70"/>
-      <c r="R26" s="70">
-        <v>100000</v>
-      </c>
+      <c r="R26" s="70"/>
       <c r="S26" s="70"/>
       <c r="T26" s="70"/>
       <c r="U26" s="70"/>
@@ -3136,8 +3134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3233,7 +3231,7 @@
       </c>
       <c r="C8" s="73"/>
       <c r="D8" s="75">
-        <v>400000000</v>
+        <v>666000000</v>
       </c>
       <c r="E8" s="83">
         <v>45869</v>
@@ -3252,7 +3250,7 @@
       </c>
       <c r="C9" s="73"/>
       <c r="D9" s="75">
-        <v>200000000</v>
+        <v>777000000</v>
       </c>
       <c r="E9" s="83">
         <v>45869</v>
@@ -3325,10 +3323,18 @@
     <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="92"/>
       <c r="C13" s="73"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="84"/>
+      <c r="D13" s="85">
+        <v>555000000</v>
+      </c>
+      <c r="E13" s="83">
+        <v>45847</v>
+      </c>
+      <c r="F13" s="83">
+        <v>45890</v>
+      </c>
+      <c r="G13" s="84">
+        <v>0.192</v>
+      </c>
       <c r="H13" s="86"/>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3393,10 +3399,18 @@
         <v>27</v>
       </c>
       <c r="C17" s="73"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="84"/>
+      <c r="D17" s="85">
+        <v>222000000</v>
+      </c>
+      <c r="E17" s="83">
+        <v>45863</v>
+      </c>
+      <c r="F17" s="83">
+        <v>45898</v>
+      </c>
+      <c r="G17" s="84">
+        <v>0.1716</v>
+      </c>
       <c r="H17" s="86"/>
     </row>
     <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3461,7 +3475,7 @@
       <c r="C23" s="39"/>
       <c r="D23" s="40">
         <f>SUM(D4:D22)</f>
-        <v>3400000000</v>
+        <v>5020000000</v>
       </c>
       <c r="E23" s="61"/>
       <c r="F23" s="61"/>

--- a/source/Cash_Severna.xlsx
+++ b/source/Cash_Severna.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artur\Documents\cf\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\filesrv\uf\kassir\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6957E53-17A9-4359-9297-20CD3286DA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C69D5D-5146-48B5-ACA8-A42D25254A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3468" yWindow="1104" windowWidth="19440" windowHeight="12120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Текущие счета" sheetId="1" r:id="rId1"/>
@@ -565,10 +565,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Процентный 9" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
     <cellStyle name="Финансовый 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="10">
@@ -949,53 +949,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI79"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P12" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="BO16" sqref="BO16"/>
       <selection pane="topRight" activeCell="BO16" sqref="BO16"/>
       <selection pane="bottomLeft" activeCell="BO16" sqref="BO16"/>
-      <selection pane="bottomRight" activeCell="R26" sqref="R26"/>
+      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="51" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="51" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="19" style="30" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" customWidth="1"/>
-    <col min="15" max="15" width="15.109375" customWidth="1"/>
-    <col min="16" max="16" width="17.5546875" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" customWidth="1"/>
-    <col min="19" max="19" width="15.109375" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" customWidth="1"/>
     <col min="21" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" customWidth="1"/>
-    <col min="23" max="23" width="17.5546875" customWidth="1"/>
-    <col min="24" max="24" width="17.88671875" customWidth="1"/>
-    <col min="25" max="25" width="17.44140625" customWidth="1"/>
-    <col min="26" max="26" width="17.109375" customWidth="1"/>
+    <col min="22" max="22" width="15.28515625" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" customWidth="1"/>
+    <col min="24" max="24" width="17.85546875" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" customWidth="1"/>
+    <col min="26" max="26" width="17.140625" customWidth="1"/>
     <col min="27" max="27" width="16" customWidth="1"/>
-    <col min="28" max="28" width="16.5546875" customWidth="1"/>
+    <col min="28" max="28" width="16.5703125" customWidth="1"/>
     <col min="29" max="29" width="16" customWidth="1"/>
-    <col min="30" max="30" width="17.6640625" customWidth="1"/>
-    <col min="31" max="31" width="16.33203125" customWidth="1"/>
+    <col min="30" max="30" width="17.7109375" customWidth="1"/>
+    <col min="31" max="31" width="16.28515625" customWidth="1"/>
     <col min="32" max="32" width="17" customWidth="1"/>
-    <col min="33" max="33" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.33203125" customWidth="1"/>
+    <col min="33" max="33" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="72" t="s">
         <v>36</v>
       </c>
@@ -1022,7 +1022,7 @@
       <c r="AC1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
@@ -1122,14 +1122,14 @@
       </c>
       <c r="AI2" s="45"/>
     </row>
-    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="63"/>
     </row>
-    <row r="4" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="94" t="s">
         <v>35</v>
       </c>
@@ -1178,8 +1178,12 @@
       </c>
       <c r="S4" s="70"/>
       <c r="T4" s="82"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
+      <c r="U4" s="70">
+        <v>135649276</v>
+      </c>
+      <c r="V4" s="70">
+        <v>158280962</v>
+      </c>
       <c r="W4" s="70"/>
       <c r="X4" s="70"/>
       <c r="Y4" s="70"/>
@@ -1195,7 +1199,7 @@
         <v>210651204</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="94"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -1242,8 +1246,12 @@
       </c>
       <c r="S5" s="70"/>
       <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="70">
+        <v>192729</v>
+      </c>
+      <c r="V5" s="70">
+        <v>192729</v>
+      </c>
       <c r="W5" s="70"/>
       <c r="X5" s="70"/>
       <c r="Y5" s="70"/>
@@ -1259,7 +1267,7 @@
         <v>932878</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="94"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -1306,8 +1314,12 @@
       </c>
       <c r="S6" s="70"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
+      <c r="U6" s="70">
+        <v>174860306</v>
+      </c>
+      <c r="V6" s="70">
+        <v>268654019</v>
+      </c>
       <c r="W6" s="70"/>
       <c r="X6" s="70"/>
       <c r="Y6" s="70"/>
@@ -1323,7 +1335,7 @@
         <v>1134250000</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="94"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -1370,8 +1382,12 @@
       </c>
       <c r="S7" s="70"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
+      <c r="U7" s="70">
+        <v>6978839</v>
+      </c>
+      <c r="V7" s="70">
+        <v>6978839</v>
+      </c>
       <c r="W7" s="70"/>
       <c r="X7" s="70"/>
       <c r="Y7" s="70"/>
@@ -1387,7 +1403,7 @@
         <v>5845109</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="94"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
@@ -1434,8 +1450,12 @@
       </c>
       <c r="S8" s="70"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
+      <c r="U8" s="70">
+        <v>3632205</v>
+      </c>
+      <c r="V8" s="70">
+        <v>161718</v>
+      </c>
       <c r="W8" s="70"/>
       <c r="X8" s="70"/>
       <c r="Y8" s="70"/>
@@ -1451,7 +1471,7 @@
         <v>4741664</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="81"/>
       <c r="B9" s="3" t="s">
         <v>39</v>
@@ -1498,8 +1518,12 @@
       </c>
       <c r="S9" s="70"/>
       <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
+      <c r="U9" s="70">
+        <v>12108637</v>
+      </c>
+      <c r="V9" s="70">
+        <v>12108637</v>
+      </c>
       <c r="W9" s="70"/>
       <c r="X9" s="70"/>
       <c r="Y9" s="70"/>
@@ -1515,7 +1539,7 @@
         <v>12113755</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="81"/>
       <c r="B10" s="3" t="s">
         <v>40</v>
@@ -1562,8 +1586,12 @@
       </c>
       <c r="S10" s="70"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
+      <c r="U10" s="70">
+        <v>7607340</v>
+      </c>
+      <c r="V10" s="70">
+        <v>7607340</v>
+      </c>
       <c r="W10" s="70"/>
       <c r="X10" s="70"/>
       <c r="Y10" s="70"/>
@@ -1579,7 +1607,7 @@
         <v>7617056</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="81"/>
       <c r="B11" s="3" t="s">
         <v>41</v>
@@ -1624,8 +1652,12 @@
       </c>
       <c r="S11" s="70"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
+      <c r="U11" s="70">
+        <v>115075</v>
+      </c>
+      <c r="V11" s="70">
+        <v>115075</v>
+      </c>
       <c r="W11" s="70"/>
       <c r="X11" s="70"/>
       <c r="Y11" s="70"/>
@@ -1641,7 +1673,7 @@
         <v>118575</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="81"/>
       <c r="B12" s="3"/>
       <c r="C12" s="47"/>
@@ -1677,16 +1709,16 @@
       <c r="AG12" s="70"/>
       <c r="AH12" s="70"/>
     </row>
-    <row r="13" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="52"/>
       <c r="C13" s="47"/>
     </row>
-    <row r="14" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="71"/>
       <c r="B14" s="4"/>
       <c r="C14" s="64"/>
     </row>
-    <row r="15" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="94" t="s">
         <v>21</v>
       </c>
@@ -1728,7 +1760,7 @@
       <c r="AG15" s="70"/>
       <c r="AH15" s="70"/>
     </row>
-    <row r="16" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="94"/>
       <c r="B16" s="3" t="s">
         <v>2</v>
@@ -1768,7 +1800,7 @@
       <c r="AG16" s="70"/>
       <c r="AH16" s="70"/>
     </row>
-    <row r="17" spans="1:34" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="94"/>
       <c r="B17" s="3" t="s">
         <v>7</v>
@@ -1808,7 +1840,7 @@
       <c r="AG17" s="70"/>
       <c r="AH17" s="70"/>
     </row>
-    <row r="18" spans="1:34" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="94"/>
       <c r="B18" s="3" t="s">
         <v>39</v>
@@ -1848,7 +1880,7 @@
       <c r="AG18" s="70"/>
       <c r="AH18" s="70"/>
     </row>
-    <row r="19" spans="1:34" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="94"/>
       <c r="B19" s="3" t="s">
         <v>40</v>
@@ -1888,7 +1920,7 @@
       <c r="AG19" s="70"/>
       <c r="AH19" s="70"/>
     </row>
-    <row r="20" spans="1:34" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="81"/>
       <c r="B20" s="3" t="s">
         <v>6</v>
@@ -1926,7 +1958,7 @@
       <c r="AG20" s="70"/>
       <c r="AH20" s="70"/>
     </row>
-    <row r="21" spans="1:34" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="81"/>
       <c r="B21" s="3" t="s">
         <v>44</v>
@@ -1964,16 +1996,16 @@
       <c r="AG21" s="70"/>
       <c r="AH21" s="70"/>
     </row>
-    <row r="22" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52"/>
       <c r="C22" s="47"/>
     </row>
-    <row r="23" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="71"/>
       <c r="B23" s="3"/>
       <c r="C23" s="64"/>
     </row>
-    <row r="24" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="94" t="s">
         <v>32</v>
       </c>
@@ -2022,8 +2054,12 @@
       </c>
       <c r="S24" s="70"/>
       <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
+      <c r="U24" s="70">
+        <v>1244543</v>
+      </c>
+      <c r="V24" s="70">
+        <v>1244543</v>
+      </c>
       <c r="W24" s="70"/>
       <c r="X24" s="70"/>
       <c r="Y24" s="70"/>
@@ -2039,7 +2075,7 @@
         <v>1244543</v>
       </c>
     </row>
-    <row r="25" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="94"/>
       <c r="B25" s="3" t="s">
         <v>7</v>
@@ -2079,7 +2115,7 @@
       <c r="AG25" s="70"/>
       <c r="AH25" s="70"/>
     </row>
-    <row r="26" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="94"/>
       <c r="B26" s="3" t="s">
         <v>2</v>
@@ -2119,7 +2155,7 @@
       <c r="AG26" s="70"/>
       <c r="AH26" s="70"/>
     </row>
-    <row r="27" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="94"/>
       <c r="B27" s="3" t="s">
         <v>39</v>
@@ -2166,8 +2202,12 @@
       </c>
       <c r="S27" s="70"/>
       <c r="T27" s="70"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
+      <c r="U27" s="70">
+        <v>1688703</v>
+      </c>
+      <c r="V27" s="70">
+        <v>1688703</v>
+      </c>
       <c r="W27" s="70"/>
       <c r="X27" s="70"/>
       <c r="Y27" s="70"/>
@@ -2183,7 +2223,7 @@
         <v>1688703</v>
       </c>
     </row>
-    <row r="28" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="94"/>
       <c r="B28" s="3" t="s">
         <v>40</v>
@@ -2223,7 +2263,7 @@
       <c r="AG28" s="70"/>
       <c r="AH28" s="70"/>
     </row>
-    <row r="29" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="94"/>
       <c r="B29" s="3" t="s">
         <v>44</v>
@@ -2261,19 +2301,19 @@
       <c r="AG29" s="70"/>
       <c r="AH29" s="70"/>
     </row>
-    <row r="30" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="101"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="98" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="64"/>
     </row>
-    <row r="32" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="94"/>
       <c r="B32" s="3" t="s">
         <v>39</v>
@@ -2320,8 +2360,12 @@
       </c>
       <c r="S32" s="70"/>
       <c r="T32" s="70"/>
-      <c r="U32" s="70"/>
-      <c r="V32" s="70"/>
+      <c r="U32" s="70">
+        <v>45112051</v>
+      </c>
+      <c r="V32" s="70">
+        <v>45112051</v>
+      </c>
       <c r="W32" s="70"/>
       <c r="X32" s="70"/>
       <c r="Y32" s="70"/>
@@ -2337,7 +2381,7 @@
         <v>45152761</v>
       </c>
     </row>
-    <row r="33" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="94"/>
       <c r="B33" s="3"/>
       <c r="C33" s="47"/>
@@ -2373,7 +2417,7 @@
       <c r="AG33" s="70"/>
       <c r="AH33" s="70"/>
     </row>
-    <row r="34" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="94"/>
       <c r="B34" s="3" t="s">
         <v>6</v>
@@ -2420,8 +2464,12 @@
       </c>
       <c r="S34" s="70"/>
       <c r="T34" s="70"/>
-      <c r="U34" s="70"/>
-      <c r="V34" s="70"/>
+      <c r="U34" s="70">
+        <v>5240700</v>
+      </c>
+      <c r="V34" s="70">
+        <v>5240700</v>
+      </c>
       <c r="W34" s="70"/>
       <c r="X34" s="70"/>
       <c r="Y34" s="70"/>
@@ -2437,7 +2485,7 @@
         <v>5240700</v>
       </c>
     </row>
-    <row r="35" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="94"/>
       <c r="B35" s="3"/>
       <c r="C35" s="47"/>
@@ -2473,7 +2521,7 @@
       <c r="AG35" s="70"/>
       <c r="AH35" s="70"/>
     </row>
-    <row r="36" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="94"/>
       <c r="B36" s="3" t="s">
         <v>4</v>
@@ -2520,8 +2568,12 @@
       </c>
       <c r="S36" s="70"/>
       <c r="T36" s="70"/>
-      <c r="U36" s="70"/>
-      <c r="V36" s="70"/>
+      <c r="U36" s="70">
+        <v>1424705</v>
+      </c>
+      <c r="V36" s="70">
+        <v>1424705</v>
+      </c>
       <c r="W36" s="70"/>
       <c r="X36" s="70"/>
       <c r="Y36" s="70"/>
@@ -2537,7 +2589,7 @@
         <v>1985332</v>
       </c>
     </row>
-    <row r="37" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="94"/>
       <c r="B37" s="3"/>
       <c r="C37" s="47"/>
@@ -2573,7 +2625,7 @@
       <c r="AG37" s="70"/>
       <c r="AH37" s="70"/>
     </row>
-    <row r="38" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="94"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
@@ -2620,8 +2672,12 @@
       </c>
       <c r="S38" s="70"/>
       <c r="T38" s="70"/>
-      <c r="U38" s="70"/>
-      <c r="V38" s="70"/>
+      <c r="U38" s="70">
+        <v>320000</v>
+      </c>
+      <c r="V38" s="70">
+        <v>320000</v>
+      </c>
       <c r="W38" s="70"/>
       <c r="X38" s="70"/>
       <c r="Y38" s="70"/>
@@ -2637,7 +2693,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="39" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="94"/>
       <c r="B39" s="3"/>
       <c r="C39" s="47"/>
@@ -2673,7 +2729,7 @@
       <c r="AG39" s="70"/>
       <c r="AH39" s="70"/>
     </row>
-    <row r="40" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="94"/>
       <c r="B40" s="3"/>
       <c r="C40" s="47"/>
@@ -2709,7 +2765,7 @@
       <c r="AG40" s="70"/>
       <c r="AH40" s="70"/>
     </row>
-    <row r="41" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="101"/>
       <c r="B41" s="17"/>
       <c r="C41" s="66"/>
@@ -2742,28 +2798,28 @@
       <c r="AD41" s="17"/>
       <c r="AE41" s="17"/>
     </row>
-    <row r="42" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="95"/>
       <c r="B42" s="95"/>
       <c r="C42" s="54"/>
     </row>
-    <row r="43" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="54"/>
       <c r="C43" s="47"/>
     </row>
-    <row r="44" spans="1:34" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="49"/>
       <c r="B44" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="68"/>
     </row>
-    <row r="45" spans="1:34" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="50"/>
       <c r="B45" s="8"/>
       <c r="C45" s="46"/>
     </row>
-    <row r="46" spans="1:34" s="1" customFormat="1" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" s="1" customFormat="1" ht="13.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="97" t="s">
         <v>3</v>
       </c>
@@ -2772,47 +2828,47 @@
       </c>
       <c r="C46" s="47"/>
     </row>
-    <row r="47" spans="1:34" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="97"/>
       <c r="B47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C47" s="47"/>
     </row>
-    <row r="48" spans="1:34" s="1" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" s="1" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="97"/>
       <c r="B48" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="47"/>
     </row>
-    <row r="49" spans="1:31" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="98" t="s">
         <v>8</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="64"/>
     </row>
-    <row r="50" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="94"/>
       <c r="B50" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="47"/>
     </row>
-    <row r="51" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="94"/>
       <c r="B51" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C51" s="47"/>
     </row>
-    <row r="52" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="94"/>
       <c r="B52" s="3"/>
       <c r="C52" s="47"/>
     </row>
-    <row r="53" spans="1:31" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="53" t="s">
         <v>9</v>
       </c>
@@ -2838,7 +2894,7 @@
       <c r="AC53" s="7"/>
       <c r="AE53" s="7"/>
     </row>
-    <row r="54" spans="1:31" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="99" t="s">
         <v>11</v>
       </c>
@@ -2847,47 +2903,47 @@
       </c>
       <c r="C54" s="47"/>
     </row>
-    <row r="55" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="97"/>
       <c r="B55" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="47"/>
     </row>
-    <row r="56" spans="1:31" s="17" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" s="17" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="100"/>
       <c r="B56" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="66"/>
     </row>
-    <row r="57" spans="1:31" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="98" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="64"/>
     </row>
-    <row r="58" spans="1:31" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="94"/>
       <c r="B58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C58" s="47"/>
     </row>
-    <row r="59" spans="1:31" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="94"/>
       <c r="B59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="47"/>
     </row>
-    <row r="60" spans="1:31" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="101"/>
       <c r="B60" s="10"/>
       <c r="C60" s="66"/>
     </row>
-    <row r="61" spans="1:31" s="7" customFormat="1" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" s="7" customFormat="1" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="53" t="s">
         <v>9</v>
       </c>
@@ -2914,12 +2970,12 @@
       <c r="AC61" s="13"/>
       <c r="AE61" s="13"/>
     </row>
-    <row r="62" spans="1:31" s="1" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" s="1" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="54"/>
       <c r="B62" s="3"/>
       <c r="C62" s="47"/>
     </row>
-    <row r="63" spans="1:31" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="95" t="s">
         <v>12</v>
       </c>
@@ -2930,12 +2986,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="48"/>
       <c r="B64" s="19"/>
       <c r="C64" s="48"/>
     </row>
-    <row r="65" spans="1:31" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="96" t="s">
         <v>15</v>
       </c>
@@ -2962,7 +3018,7 @@
       <c r="AC65" s="21"/>
       <c r="AE65" s="21"/>
     </row>
-    <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
       <c r="H66" s="23"/>
@@ -2979,7 +3035,7 @@
       <c r="AC66" s="21"/>
       <c r="AE66" s="21"/>
     </row>
-    <row r="67" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" s="24" t="s">
         <v>16</v>
       </c>
@@ -3012,67 +3068,67 @@
       <c r="AD67" s="25"/>
       <c r="AE67" s="25"/>
     </row>
-    <row r="68" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
     </row>
-    <row r="69" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" s="24"/>
       <c r="D69" s="25"/>
       <c r="E69" s="25"/>
     </row>
-    <row r="70" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" s="26"/>
       <c r="D70" s="25"/>
       <c r="E70" s="25"/>
     </row>
-    <row r="71" spans="1:31" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="55"/>
       <c r="B71" s="27"/>
       <c r="C71" s="29"/>
       <c r="D71" s="25"/>
       <c r="E71" s="25"/>
     </row>
-    <row r="72" spans="1:31" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="55"/>
       <c r="B72" s="27"/>
       <c r="C72" s="29"/>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
     </row>
-    <row r="73" spans="1:31" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="55"/>
       <c r="C73" s="29"/>
       <c r="D73" s="25"/>
       <c r="E73" s="25"/>
     </row>
-    <row r="74" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="55"/>
       <c r="C74" s="29"/>
       <c r="D74" s="25"/>
       <c r="E74" s="25"/>
     </row>
-    <row r="75" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="55"/>
       <c r="C75" s="29"/>
       <c r="D75" s="25"/>
       <c r="E75" s="25"/>
     </row>
-    <row r="76" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="55"/>
       <c r="C76" s="29"/>
       <c r="D76" s="25"/>
       <c r="E76" s="25"/>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D77" s="25"/>
       <c r="E77" s="25"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D78" s="30"/>
       <c r="E78" s="30"/>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D79" s="30"/>
       <c r="E79" s="30"/>
     </row>
@@ -3134,29 +3190,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:G17"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="31" customWidth="1"/>
-    <col min="3" max="4" width="20.44140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="58" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="31" customWidth="1"/>
+    <col min="3" max="4" width="20.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="58" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="58" customWidth="1"/>
     <col min="7" max="7" width="10" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="31"/>
+    <col min="8" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="102" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="102"/>
       <c r="C1" s="44"/>
     </row>
-    <row r="2" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>18</v>
       </c>
@@ -3179,7 +3235,7 @@
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
@@ -3190,7 +3246,7 @@
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
       <c r="D4" s="36"/>
@@ -3198,7 +3254,7 @@
       <c r="F4" s="59"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
       <c r="D5" s="36"/>
@@ -3206,7 +3262,7 @@
       <c r="F5" s="59"/>
       <c r="G5" s="37"/>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
       <c r="D6" s="36"/>
@@ -3214,7 +3270,7 @@
       <c r="F6" s="59"/>
       <c r="G6" s="37"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="36"/>
@@ -3222,7 +3278,7 @@
       <c r="F7" s="59"/>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>1</v>
       </c>
@@ -3231,7 +3287,7 @@
       </c>
       <c r="C8" s="73"/>
       <c r="D8" s="75">
-        <v>666000000</v>
+        <v>400000000</v>
       </c>
       <c r="E8" s="83">
         <v>45869</v>
@@ -3244,13 +3300,13 @@
       </c>
       <c r="H8" s="86"/>
     </row>
-    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="92" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="73"/>
       <c r="D9" s="75">
-        <v>777000000</v>
+        <v>200000000</v>
       </c>
       <c r="E9" s="83">
         <v>45869</v>
@@ -3263,7 +3319,7 @@
       </c>
       <c r="H9" s="86"/>
     </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="92" t="s">
         <v>27</v>
       </c>
@@ -3282,7 +3338,7 @@
       </c>
       <c r="H10" s="86"/>
     </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="92" t="s">
         <v>27</v>
       </c>
@@ -3301,7 +3357,7 @@
       </c>
       <c r="H11" s="86"/>
     </row>
-    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="92" t="s">
         <v>27</v>
       </c>
@@ -3320,24 +3376,16 @@
       </c>
       <c r="H12" s="86"/>
     </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="92"/>
       <c r="C13" s="73"/>
-      <c r="D13" s="85">
-        <v>555000000</v>
-      </c>
-      <c r="E13" s="83">
-        <v>45847</v>
-      </c>
-      <c r="F13" s="83">
-        <v>45890</v>
-      </c>
-      <c r="G13" s="84">
-        <v>0.192</v>
-      </c>
+      <c r="D13" s="85"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="84"/>
       <c r="H13" s="86"/>
     </row>
-    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="92" t="s">
         <v>27</v>
       </c>
@@ -3356,7 +3404,7 @@
       </c>
       <c r="H14" s="86"/>
     </row>
-    <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="92" t="s">
         <v>27</v>
       </c>
@@ -3375,7 +3423,7 @@
       </c>
       <c r="H15" s="86"/>
     </row>
-    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="92" t="s">
         <v>27</v>
       </c>
@@ -3394,26 +3442,26 @@
       </c>
       <c r="H16" s="86"/>
     </row>
-    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="92" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="73"/>
-      <c r="D17" s="85">
-        <v>222000000</v>
+      <c r="D17" s="75">
+        <v>300000000</v>
       </c>
       <c r="E17" s="83">
-        <v>45863</v>
+        <v>45887</v>
       </c>
       <c r="F17" s="83">
-        <v>45898</v>
+        <v>45917</v>
       </c>
       <c r="G17" s="84">
-        <v>0.1716</v>
+        <v>0.17460000000000001</v>
       </c>
       <c r="H17" s="86"/>
     </row>
-    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="93" t="s">
         <v>45</v>
       </c>
@@ -3432,7 +3480,7 @@
       </c>
       <c r="H18" s="86"/>
     </row>
-    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="92"/>
       <c r="C19" s="73"/>
       <c r="D19" s="85"/>
@@ -3441,7 +3489,7 @@
       <c r="G19" s="84"/>
       <c r="H19" s="86"/>
     </row>
-    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="92"/>
       <c r="C20" s="73"/>
       <c r="D20" s="85"/>
@@ -3450,7 +3498,7 @@
       <c r="G20" s="84"/>
       <c r="H20" s="86"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="73"/>
       <c r="C21" s="73"/>
       <c r="D21" s="75"/>
@@ -3459,7 +3507,7 @@
       <c r="G21" s="84"/>
       <c r="H21" s="86"/>
     </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
       <c r="D22" s="43"/>
@@ -3467,7 +3515,7 @@
       <c r="F22" s="60"/>
       <c r="G22" s="37"/>
     </row>
-    <row r="23" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="38"/>
       <c r="B23" s="39" t="s">
         <v>19</v>
@@ -3475,13 +3523,13 @@
       <c r="C23" s="39"/>
       <c r="D23" s="40">
         <f>SUM(D4:D22)</f>
-        <v>5020000000</v>
+        <v>3700000000</v>
       </c>
       <c r="E23" s="61"/>
       <c r="F23" s="61"/>
       <c r="G23" s="41"/>
     </row>
-    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="86"/>
       <c r="C24" s="86"/>
       <c r="D24" s="86"/>
@@ -3490,7 +3538,7 @@
       <c r="G24" s="86"/>
       <c r="H24" s="86"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B25" s="86"/>
       <c r="C25" s="86"/>
       <c r="D25" s="87">
@@ -3507,7 +3555,7 @@
       </c>
       <c r="H25" s="86"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="31" t="s">
         <v>43</v>
       </c>
@@ -3521,7 +3569,7 @@
       <c r="G26" s="86"/>
       <c r="H26" s="86"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="86"/>
       <c r="C27" s="86"/>
       <c r="D27" s="86"/>
@@ -3530,7 +3578,7 @@
       <c r="G27" s="86"/>
       <c r="H27" s="86"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="73"/>
       <c r="C28" s="74"/>
       <c r="D28" s="86"/>
@@ -3540,7 +3588,7 @@
       <c r="H28" s="86"/>
       <c r="I28" s="80"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="86"/>
       <c r="C29" s="86"/>
       <c r="D29" s="86"/>
@@ -3549,7 +3597,7 @@
       <c r="G29" s="86"/>
       <c r="H29" s="86"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="89"/>
       <c r="C30" s="86"/>
       <c r="D30" s="86"/>
@@ -3558,7 +3606,7 @@
       <c r="G30" s="88"/>
       <c r="H30" s="86"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" s="73"/>
       <c r="C31" s="74"/>
       <c r="D31" s="86"/>
@@ -3568,7 +3616,7 @@
       <c r="H31" s="86"/>
       <c r="I31" s="80"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" s="91"/>
       <c r="C32" s="86"/>
       <c r="D32" s="86"/>
@@ -3577,7 +3625,7 @@
       <c r="G32" s="86"/>
       <c r="H32" s="86"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="91"/>
       <c r="C33" s="86"/>
       <c r="D33" s="86"/>
@@ -3586,7 +3634,7 @@
       <c r="G33" s="86"/>
       <c r="H33" s="86"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="91"/>
       <c r="C34" s="86"/>
       <c r="D34" s="86"/>
@@ -3595,7 +3643,7 @@
       <c r="G34" s="86"/>
       <c r="H34" s="86"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="80"/>
     </row>
   </sheetData>
@@ -3625,26 +3673,26 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="31" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="58" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="58" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.109375" style="31"/>
+    <col min="1" max="1" width="12.5703125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="58" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="58" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="102"/>
       <c r="B1" s="102"/>
       <c r="C1" s="44"/>
       <c r="E1" s="58"/>
       <c r="F1" s="58"/>
     </row>
-    <row r="2" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>18</v>
       </c>
@@ -3667,7 +3715,7 @@
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:10" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
       <c r="D3" s="36"/>
@@ -3675,7 +3723,7 @@
       <c r="F3" s="59"/>
       <c r="G3" s="37"/>
     </row>
-    <row r="4" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
@@ -3686,7 +3734,7 @@
       <c r="F4" s="76"/>
       <c r="G4" s="77"/>
     </row>
-    <row r="5" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>1</v>
       </c>
@@ -3697,7 +3745,7 @@
       <c r="F5" s="76"/>
       <c r="G5" s="77"/>
     </row>
-    <row r="6" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
         <v>1</v>
       </c>
@@ -3708,7 +3756,7 @@
       <c r="F6" s="76"/>
       <c r="G6" s="77"/>
     </row>
-    <row r="7" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>1</v>
       </c>
@@ -3719,7 +3767,7 @@
       <c r="F7" s="76"/>
       <c r="G7" s="77"/>
     </row>
-    <row r="8" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>1</v>
       </c>
@@ -3730,7 +3778,7 @@
       <c r="F8" s="76"/>
       <c r="G8" s="77"/>
     </row>
-    <row r="9" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
         <v>1</v>
       </c>
@@ -3741,7 +3789,7 @@
       <c r="F9" s="76"/>
       <c r="G9" s="77"/>
     </row>
-    <row r="10" spans="1:10" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
       <c r="D10" s="43"/>
@@ -3749,12 +3797,12 @@
       <c r="F10" s="60"/>
       <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
       <c r="J11" s="31"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
       <c r="J12" s="31"/>

--- a/source/Cash_Severna.xlsx
+++ b/source/Cash_Severna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\filesrv\uf\kassir\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C69D5D-5146-48B5-ACA8-A42D25254A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A9A0A7-DC95-4C59-A429-A9D2ECAD961C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -954,7 +954,7 @@
       <selection activeCell="BO16" sqref="BO16"/>
       <selection pane="topRight" activeCell="BO16" sqref="BO16"/>
       <selection pane="bottomLeft" activeCell="BO16" sqref="BO16"/>
-      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
+      <selection pane="bottomRight" activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1184,7 +1184,9 @@
       <c r="V4" s="70">
         <v>158280962</v>
       </c>
-      <c r="W4" s="70"/>
+      <c r="W4" s="70">
+        <v>277135674</v>
+      </c>
       <c r="X4" s="70"/>
       <c r="Y4" s="70"/>
       <c r="Z4" s="70"/>
@@ -1252,7 +1254,9 @@
       <c r="V5" s="70">
         <v>192729</v>
       </c>
-      <c r="W5" s="70"/>
+      <c r="W5" s="70">
+        <v>1927291</v>
+      </c>
       <c r="X5" s="70"/>
       <c r="Y5" s="70"/>
       <c r="Z5" s="70"/>
@@ -1320,7 +1324,9 @@
       <c r="V6" s="70">
         <v>268654019</v>
       </c>
-      <c r="W6" s="70"/>
+      <c r="W6" s="70">
+        <v>312868092</v>
+      </c>
       <c r="X6" s="70"/>
       <c r="Y6" s="70"/>
       <c r="Z6" s="70"/>
@@ -1388,7 +1394,9 @@
       <c r="V7" s="70">
         <v>6978839</v>
       </c>
-      <c r="W7" s="70"/>
+      <c r="W7" s="70">
+        <v>8269159</v>
+      </c>
       <c r="X7" s="70"/>
       <c r="Y7" s="70"/>
       <c r="Z7" s="70"/>
@@ -1456,7 +1464,9 @@
       <c r="V8" s="70">
         <v>161718</v>
       </c>
-      <c r="W8" s="70"/>
+      <c r="W8" s="70">
+        <v>93006</v>
+      </c>
       <c r="X8" s="70"/>
       <c r="Y8" s="70"/>
       <c r="Z8" s="70"/>
@@ -1524,7 +1534,9 @@
       <c r="V9" s="70">
         <v>12108637</v>
       </c>
-      <c r="W9" s="70"/>
+      <c r="W9" s="70">
+        <v>12108637</v>
+      </c>
       <c r="X9" s="70"/>
       <c r="Y9" s="70"/>
       <c r="Z9" s="70"/>
@@ -1592,7 +1604,9 @@
       <c r="V10" s="70">
         <v>7607340</v>
       </c>
-      <c r="W10" s="70"/>
+      <c r="W10" s="70">
+        <v>7607340</v>
+      </c>
       <c r="X10" s="70"/>
       <c r="Y10" s="70"/>
       <c r="Z10" s="70"/>
@@ -1658,7 +1672,9 @@
       <c r="V11" s="70">
         <v>115075</v>
       </c>
-      <c r="W11" s="70"/>
+      <c r="W11" s="70">
+        <v>115075</v>
+      </c>
       <c r="X11" s="70"/>
       <c r="Y11" s="70"/>
       <c r="Z11" s="70"/>
@@ -2060,7 +2076,9 @@
       <c r="V24" s="70">
         <v>1244543</v>
       </c>
-      <c r="W24" s="70"/>
+      <c r="W24" s="70">
+        <v>1244543</v>
+      </c>
       <c r="X24" s="70"/>
       <c r="Y24" s="70"/>
       <c r="Z24" s="70"/>
@@ -2208,7 +2226,9 @@
       <c r="V27" s="70">
         <v>1688703</v>
       </c>
-      <c r="W27" s="70"/>
+      <c r="W27" s="70">
+        <v>1688703</v>
+      </c>
       <c r="X27" s="70"/>
       <c r="Y27" s="70"/>
       <c r="Z27" s="70"/>
@@ -2366,7 +2386,9 @@
       <c r="V32" s="70">
         <v>45112051</v>
       </c>
-      <c r="W32" s="70"/>
+      <c r="W32" s="70">
+        <v>45112051</v>
+      </c>
       <c r="X32" s="70"/>
       <c r="Y32" s="70"/>
       <c r="Z32" s="70"/>
@@ -2470,7 +2492,9 @@
       <c r="V34" s="70">
         <v>5240700</v>
       </c>
-      <c r="W34" s="70"/>
+      <c r="W34" s="70">
+        <v>5240700</v>
+      </c>
       <c r="X34" s="70"/>
       <c r="Y34" s="70"/>
       <c r="Z34" s="70"/>
@@ -2574,7 +2598,9 @@
       <c r="V36" s="70">
         <v>1424705</v>
       </c>
-      <c r="W36" s="70"/>
+      <c r="W36" s="70">
+        <v>1736555</v>
+      </c>
       <c r="X36" s="70"/>
       <c r="Y36" s="70"/>
       <c r="Z36" s="70"/>
@@ -2678,7 +2704,9 @@
       <c r="V38" s="70">
         <v>320000</v>
       </c>
-      <c r="W38" s="70"/>
+      <c r="W38" s="70">
+        <v>320000</v>
+      </c>
       <c r="X38" s="70"/>
       <c r="Y38" s="70"/>
       <c r="Z38" s="70"/>
